--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_AREPD_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_AREPD_No_lineal_Estacionario_SETAR.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.1574902359141943</v>
+        <v>-0.1581305064958239</v>
       </c>
       <c r="D2">
-        <v>0.8748774391952234</v>
+        <v>0.8757964583428528</v>
       </c>
       <c r="E2">
         <v>0.71081999192963</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.3552108619091781</v>
+        <v>-0.3740981916564439</v>
       </c>
       <c r="D3">
-        <v>0.7224762436595245</v>
+        <v>0.7119125877667059</v>
       </c>
       <c r="E3">
         <v>0.71081999192963</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.616449820882428</v>
+        <v>1.490169631537824</v>
       </c>
       <c r="D4">
-        <v>0.106184952994538</v>
+        <v>0.1503781433732672</v>
       </c>
       <c r="E4">
         <v>0.71081999192963</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.4357847557101505</v>
+        <v>0.4778140403806937</v>
       </c>
       <c r="D5">
-        <v>0.6630489246603086</v>
+        <v>0.6374958980720455</v>
       </c>
       <c r="E5">
         <v>0.71081999192963</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.1443141743996985</v>
+        <v>-0.1379889517784247</v>
       </c>
       <c r="D6">
-        <v>0.8852697054088907</v>
+        <v>0.8915043528864448</v>
       </c>
       <c r="E6">
         <v>0.7160232062789869</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.640391623552931</v>
+        <v>1.712320696094954</v>
       </c>
       <c r="D7">
-        <v>0.1011110770804688</v>
+        <v>0.100899240245691</v>
       </c>
       <c r="E7">
         <v>0.7160232062789869</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.5683629772523792</v>
+        <v>0.5421388377919437</v>
       </c>
       <c r="D8">
-        <v>0.5698645284311858</v>
+        <v>0.5931723314261372</v>
       </c>
       <c r="E8">
         <v>0.7160232062789869</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>2.017855187801439</v>
+        <v>2.343377191714163</v>
       </c>
       <c r="D9">
-        <v>0.04376514255941499</v>
+        <v>0.02855515918675722</v>
       </c>
       <c r="E9">
         <v>0.7204259151245022</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.7903147165190543</v>
+        <v>1.034220857718455</v>
       </c>
       <c r="D10">
-        <v>0.4294556014162003</v>
+        <v>0.3122684366282888</v>
       </c>
       <c r="E10">
         <v>0.7204259151245022</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.134104999510778</v>
+        <v>-1.282914624190289</v>
       </c>
       <c r="D11">
-        <v>0.2569124016905953</v>
+        <v>0.2128736151774504</v>
       </c>
       <c r="E11">
         <v>0.6630086419856966</v>
